--- a/classfiers/mega/randomForest/nearmiss/mega-randomForest-nearmiss-results.xlsx
+++ b/classfiers/mega/randomForest/nearmiss/mega-randomForest-nearmiss-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9894736842105264</v>
+        <v>0.988235294117647</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995659722222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995567375886525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9894736842105264</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9968971631205674</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8125</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.896551724137931</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9955673758865249</v>
+        <v>0.9902650081124932</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9915780141843971</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9540780141843971</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9708444993628607</v>
+        <v>0.9674777898902155</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9983174497635934</v>
+        <v>0.9980530016224985</v>
       </c>
     </row>
   </sheetData>
